--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H2">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N2">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P2">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q2">
-        <v>113.4060852233614</v>
+        <v>118.30913849863</v>
       </c>
       <c r="R2">
-        <v>113.4060852233614</v>
+        <v>1064.78224648767</v>
       </c>
       <c r="S2">
-        <v>0.0008784018690782566</v>
+        <v>0.0007022740204337472</v>
       </c>
       <c r="T2">
-        <v>0.0008784018690782566</v>
+        <v>0.0007022740204337472</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H3">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N3">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P3">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q3">
-        <v>218.1019478887597</v>
+        <v>224.4161599924767</v>
       </c>
       <c r="R3">
-        <v>218.1019478887597</v>
+        <v>2019.74543993229</v>
       </c>
       <c r="S3">
-        <v>0.001689337554486271</v>
+        <v>0.001332117205215256</v>
       </c>
       <c r="T3">
-        <v>0.001689337554486271</v>
+        <v>0.001332117205215256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H4">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N4">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P4">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q4">
-        <v>246.8504462465013</v>
+        <v>256.451339845865</v>
       </c>
       <c r="R4">
-        <v>246.8504462465013</v>
+        <v>2308.062058612785</v>
       </c>
       <c r="S4">
-        <v>0.001912012860144661</v>
+        <v>0.001522275588890899</v>
       </c>
       <c r="T4">
-        <v>0.001912012860144661</v>
+        <v>0.001522275588890899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H5">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N5">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P5">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q5">
-        <v>508.9280662269171</v>
+        <v>623.4269794499401</v>
       </c>
       <c r="R5">
-        <v>508.9280662269171</v>
+        <v>5610.84281504946</v>
       </c>
       <c r="S5">
-        <v>0.003941969813344872</v>
+        <v>0.003700614989350517</v>
       </c>
       <c r="T5">
-        <v>0.003941969813344872</v>
+        <v>0.003700614989350517</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H6">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N6">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P6">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q6">
-        <v>167.6864908110091</v>
+        <v>197.7525944638884</v>
       </c>
       <c r="R6">
-        <v>167.6864908110091</v>
+        <v>1779.773350174995</v>
       </c>
       <c r="S6">
-        <v>0.001298837947341661</v>
+        <v>0.001173844314376167</v>
       </c>
       <c r="T6">
-        <v>0.001298837947341661</v>
+        <v>0.001173844314376166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H7">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N7">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P7">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q7">
-        <v>150.3302449214204</v>
+        <v>162.507078959854</v>
       </c>
       <c r="R7">
-        <v>150.3302449214204</v>
+        <v>1462.563710638686</v>
       </c>
       <c r="S7">
-        <v>0.00116440284362065</v>
+        <v>0.0009646296231918095</v>
       </c>
       <c r="T7">
-        <v>0.00116440284362065</v>
+        <v>0.0009646296231918095</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H8">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N8">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P8">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q8">
-        <v>289.1142849996025</v>
+        <v>308.2535727549647</v>
       </c>
       <c r="R8">
-        <v>289.1142849996025</v>
+        <v>2774.282154794682</v>
       </c>
       <c r="S8">
-        <v>0.002239373026770874</v>
+        <v>0.001829769691495154</v>
       </c>
       <c r="T8">
-        <v>0.002239373026770874</v>
+        <v>0.001829769691495154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H9">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N9">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P9">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q9">
-        <v>327.223075993757</v>
+        <v>352.256458482917</v>
       </c>
       <c r="R9">
-        <v>327.223075993757</v>
+        <v>3170.308126346253</v>
       </c>
       <c r="S9">
-        <v>0.00253454972008188</v>
+        <v>0.00209096746423706</v>
       </c>
       <c r="T9">
-        <v>0.00253454972008188</v>
+        <v>0.00209096746423706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H10">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N10">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P10">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q10">
-        <v>674.6311777943022</v>
+        <v>856.3268963060519</v>
       </c>
       <c r="R10">
-        <v>674.6311777943022</v>
+        <v>7706.942066754467</v>
       </c>
       <c r="S10">
-        <v>0.005225445233788097</v>
+        <v>0.005083091128090393</v>
       </c>
       <c r="T10">
-        <v>0.005225445233788097</v>
+        <v>0.005083091128090392</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H11">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N11">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O11">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P11">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q11">
-        <v>222.2839381500812</v>
+        <v>271.6290295988524</v>
       </c>
       <c r="R11">
-        <v>222.2839381500812</v>
+        <v>2444.661266389671</v>
       </c>
       <c r="S11">
-        <v>0.001721729714525803</v>
+        <v>0.001612369197372799</v>
       </c>
       <c r="T11">
-        <v>0.001721729714525803</v>
+        <v>0.001612369197372799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H12">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N12">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O12">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P12">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q12">
-        <v>6214.05742165083</v>
+        <v>6409.225960493814</v>
       </c>
       <c r="R12">
-        <v>6214.05742165083</v>
+        <v>57683.03364444432</v>
       </c>
       <c r="S12">
-        <v>0.04813180565211217</v>
+        <v>0.03804467634760485</v>
       </c>
       <c r="T12">
-        <v>0.04813180565211217</v>
+        <v>0.03804467634760485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H13">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N13">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O13">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P13">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q13">
-        <v>11950.84042699554</v>
+        <v>12157.41993248282</v>
       </c>
       <c r="R13">
-        <v>11950.84042699554</v>
+        <v>109416.7793923454</v>
       </c>
       <c r="S13">
-        <v>0.09256681903314995</v>
+        <v>0.07216551724096067</v>
       </c>
       <c r="T13">
-        <v>0.09256681903314995</v>
+        <v>0.07216551724096067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H14">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N14">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O14">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P14">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q14">
-        <v>13526.10703838935</v>
+        <v>13892.8793312325</v>
       </c>
       <c r="R14">
-        <v>13526.10703838935</v>
+        <v>125035.9139810925</v>
       </c>
       <c r="S14">
-        <v>0.1047682554289091</v>
+        <v>0.08246707183535562</v>
       </c>
       <c r="T14">
-        <v>0.1047682554289091</v>
+        <v>0.08246707183535562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H15">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N15">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O15">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P15">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q15">
-        <v>27886.58316522427</v>
+        <v>33773.25227678053</v>
       </c>
       <c r="R15">
-        <v>27886.58316522427</v>
+        <v>303959.2704910248</v>
       </c>
       <c r="S15">
-        <v>0.2159992272574558</v>
+        <v>0.2004754489849702</v>
       </c>
       <c r="T15">
-        <v>0.2159992272574558</v>
+        <v>0.2004754489849702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H16">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N16">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O16">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P16">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q16">
-        <v>9188.338356644745</v>
+        <v>10712.95994778658</v>
       </c>
       <c r="R16">
-        <v>9188.338356644745</v>
+        <v>96416.63953007922</v>
       </c>
       <c r="S16">
-        <v>0.07116949298006066</v>
+        <v>0.06359131296831233</v>
       </c>
       <c r="T16">
-        <v>0.07116949298006066</v>
+        <v>0.06359131296831232</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H17">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N17">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O17">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P17">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q17">
-        <v>5170.864668704951</v>
+        <v>7321.793435816955</v>
       </c>
       <c r="R17">
-        <v>5170.864668704951</v>
+        <v>65896.14092235258</v>
       </c>
       <c r="S17">
-        <v>0.04005161787213767</v>
+        <v>0.04346160726219923</v>
       </c>
       <c r="T17">
-        <v>0.04005161787213767</v>
+        <v>0.04346160726219923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H18">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N18">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O18">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P18">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q18">
-        <v>9944.577967685605</v>
+        <v>13888.43489163933</v>
       </c>
       <c r="R18">
-        <v>9944.577967685605</v>
+        <v>124995.914024754</v>
       </c>
       <c r="S18">
-        <v>0.0770270471536392</v>
+        <v>0.08244068998099274</v>
       </c>
       <c r="T18">
-        <v>0.0770270471536392</v>
+        <v>0.08244068998099274</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H19">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N19">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O19">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P19">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q19">
-        <v>11255.39470334474</v>
+        <v>15870.99492497497</v>
       </c>
       <c r="R19">
-        <v>11255.39470334474</v>
+        <v>142838.9543247747</v>
       </c>
       <c r="S19">
-        <v>0.08718015197472735</v>
+        <v>0.09420901509121239</v>
       </c>
       <c r="T19">
-        <v>0.08718015197472735</v>
+        <v>0.09420901509121239</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H20">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N20">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O20">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P20">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q20">
-        <v>23205.0877285992</v>
+        <v>38582.00324821586</v>
       </c>
       <c r="R20">
-        <v>23205.0877285992</v>
+        <v>347238.0292339427</v>
       </c>
       <c r="S20">
-        <v>0.1797380836555631</v>
+        <v>0.229019827896272</v>
       </c>
       <c r="T20">
-        <v>0.1797380836555631</v>
+        <v>0.2290198278962719</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H21">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N21">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O21">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P21">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q21">
-        <v>7645.83442807306</v>
+        <v>12238.30776249154</v>
       </c>
       <c r="R21">
-        <v>7645.83442807306</v>
+        <v>110144.7698624238</v>
       </c>
       <c r="S21">
-        <v>0.05922182428795058</v>
+        <v>0.07264566122903511</v>
       </c>
       <c r="T21">
-        <v>0.05922182428795058</v>
+        <v>0.0726456612290351</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H22">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.09966689963754</v>
+        <v>3.192726</v>
       </c>
       <c r="N22">
-        <v>3.09966689963754</v>
+        <v>9.578177999999999</v>
       </c>
       <c r="O22">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="P22">
-        <v>0.09036535601512889</v>
+        <v>0.08329539975831042</v>
       </c>
       <c r="Q22">
-        <v>17.96209368929632</v>
+        <v>20.588624590262</v>
       </c>
       <c r="R22">
-        <v>17.96209368929632</v>
+        <v>185.297621312358</v>
       </c>
       <c r="S22">
-        <v>0.0001391277781801644</v>
+        <v>0.0001222125048807775</v>
       </c>
       <c r="T22">
-        <v>0.0001391277781801644</v>
+        <v>0.0001222125048807775</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H23">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.9612620194564</v>
+        <v>6.056162</v>
       </c>
       <c r="N23">
-        <v>5.9612620194564</v>
+        <v>18.168486</v>
       </c>
       <c r="O23">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="P23">
-        <v>0.1737901465317566</v>
+        <v>0.1579999144276987</v>
       </c>
       <c r="Q23">
-        <v>34.54459797355666</v>
+        <v>39.05378847912733</v>
       </c>
       <c r="R23">
-        <v>34.54459797355666</v>
+        <v>351.484096312146</v>
       </c>
       <c r="S23">
-        <v>0.0002675697637103368</v>
+        <v>0.0002318203090349061</v>
       </c>
       <c r="T23">
-        <v>0.0002675697637103368</v>
+        <v>0.0002318203090349061</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H24">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.7470291023979</v>
+        <v>6.920673000000001</v>
       </c>
       <c r="N24">
-        <v>6.7470291023979</v>
+        <v>20.762019</v>
       </c>
       <c r="O24">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="P24">
-        <v>0.1966978087077411</v>
+        <v>0.1805542424033711</v>
       </c>
       <c r="Q24">
-        <v>39.09799755446348</v>
+        <v>44.628677283601</v>
       </c>
       <c r="R24">
-        <v>39.09799755446348</v>
+        <v>401.658095552409</v>
       </c>
       <c r="S24">
-        <v>0.0003028387238781353</v>
+        <v>0.0002649124236751808</v>
       </c>
       <c r="T24">
-        <v>0.0003028387238781353</v>
+        <v>0.0002649124236751808</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H25">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.9102542696285</v>
+        <v>16.823988</v>
       </c>
       <c r="N25">
-        <v>13.9102542696285</v>
+        <v>50.471964</v>
       </c>
       <c r="O25">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="P25">
-        <v>0.4055290842648073</v>
+        <v>0.4389229786674514</v>
       </c>
       <c r="Q25">
-        <v>80.60778739232217</v>
+        <v>108.491230704756</v>
       </c>
       <c r="R25">
-        <v>80.60778739232217</v>
+        <v>976.4210763428039</v>
       </c>
       <c r="S25">
-        <v>0.0006243583046555303</v>
+        <v>0.0006439956687683638</v>
       </c>
       <c r="T25">
-        <v>0.0006243583046555303</v>
+        <v>0.0006439956687683637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H26">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.58328372820145</v>
+        <v>5.336611</v>
       </c>
       <c r="N26">
-        <v>4.58328372820145</v>
+        <v>16.009833</v>
       </c>
       <c r="O26">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="P26">
-        <v>0.1336176044805661</v>
+        <v>0.1392274647431683</v>
       </c>
       <c r="Q26">
-        <v>26.55942538219462</v>
+        <v>34.41368926217367</v>
       </c>
       <c r="R26">
-        <v>26.55942538219462</v>
+        <v>309.7232033595629</v>
       </c>
       <c r="S26">
-        <v>0.0002057195506873765</v>
+        <v>0.000204277034071922</v>
       </c>
       <c r="T26">
-        <v>0.0002057195506873765</v>
+        <v>0.000204277034071922</v>
       </c>
     </row>
   </sheetData>
